--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XCD HR_Documents\Project Imp Documents\Regression Testing_2018_2019\New Input Files_2018_2019\4 Weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
+    <workbookView activeTab="2" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI4WeeklyCat_A" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI4WeeklyCat_A" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="64">
   <si>
     <t>TC</t>
   </si>
@@ -220,6 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,46 +268,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="15">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -323,10 +330,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -361,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,7 +420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +525,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -527,13 +534,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -543,7 +550,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -552,7 +559,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -561,7 +568,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -571,12 +578,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -607,7 +614,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -626,7 +633,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -638,7 +645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -647,10 +654,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,7 +688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -695,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -709,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -737,7 +744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="7" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -751,7 +758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -766,13 +773,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -781,12 +788,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -966,38 +973,446 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:C10" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="C2:C10"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="38.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="47.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="37.5" r="2" s="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="9"/>
+    </row>
+    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="9"/>
+    </row>
+    <row ht="45" r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="9"/>
+    </row>
+    <row ht="45" r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="9"/>
+    </row>
+    <row ht="45" r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="9"/>
+    </row>
+    <row ht="45" r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="9"/>
+    </row>
+    <row ht="45" r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId10" ref="A2:A10"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId11"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="I2:I10"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1029,16 +1444,19 @@
         <v>36</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.75" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>51</v>
       </c>
@@ -1064,432 +1482,24 @@
         <v>63</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="9"/>
+      <c r="K2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2:A10" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.28515625" style="5" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XCD HR_Documents\Project Imp Documents\Regression Testing_2018_2019\New Input Files_2018_2019\4 Weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI4WeeklyCat_A" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI4WeeklyCat_A" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="64">
   <si>
     <t>TC</t>
   </si>
@@ -220,7 +220,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +237,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -267,46 +275,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="15">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -323,10 +337,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -361,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,7 +427,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +532,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -527,13 +541,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -543,7 +557,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -552,7 +566,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -561,7 +575,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -571,12 +585,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -607,7 +621,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -626,7 +640,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -638,7 +652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -647,10 +661,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,7 +695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -695,7 +709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -709,7 +723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -737,7 +751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="7" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -751,7 +765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -766,27 +780,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -812,192 +826,192 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row customFormat="1" r="2" s="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" s="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" s="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" s="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="E5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customFormat="1" r="6" s="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="E6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="E7" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customFormat="1" r="8" s="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="E8" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customFormat="1" r="9" s="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customFormat="1" r="10" s="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="9" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:C10" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="C2:C10"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="47.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="70.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1038,20 +1052,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="37.5" r="2" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -1073,20 +1087,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="3" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -1107,22 +1121,21 @@
       <c r="K3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" ht="30" r="4" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -1143,22 +1156,21 @@
       <c r="K4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" ht="30" r="5" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -1179,22 +1191,21 @@
       <c r="K5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" ht="30" r="6" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -1215,22 +1226,21 @@
       <c r="K6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" ht="30" r="7" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -1251,22 +1261,21 @@
       <c r="K7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" ht="30" r="8" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -1287,22 +1296,21 @@
       <c r="K8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" ht="30" r="9" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -1323,22 +1331,21 @@
       <c r="K9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" ht="30" r="10" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -1359,50 +1366,48 @@
       <c r="K10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2:A10" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E3"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E4"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E5"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E6"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E7"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E8"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E9"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId9" ref="A2:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1446,11 +1451,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row customFormat="1" customHeight="1" ht="42.75" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1459,7 +1464,7 @@
       <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -1486,10 +1491,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XCD HR_Documents\Project Imp Documents\Regression Testing_2018_2019\New Input Files_2018_2019\4 Weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
+    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="64">
   <si>
     <t>TC</t>
   </si>
@@ -272,7 +272,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -300,12 +300,6 @@
     </xf>
     <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
@@ -985,15 +979,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="38.5703125" collapsed="true"/>
@@ -1046,19 +1040,19 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="37.5" r="2" s="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -1081,19 +1075,19 @@
       </c>
     </row>
     <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -1117,19 +1111,19 @@
       <c r="L3" s="9"/>
     </row>
     <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -1153,19 +1147,19 @@
       <c r="L4" s="9"/>
     </row>
     <row ht="45" r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -1189,19 +1183,19 @@
       <c r="L5" s="9"/>
     </row>
     <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -1225,19 +1219,19 @@
       <c r="L6" s="9"/>
     </row>
     <row ht="45" r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -1261,19 +1255,19 @@
       <c r="L7" s="9"/>
     </row>
     <row ht="45" r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -1297,19 +1291,19 @@
       <c r="L8" s="9"/>
     </row>
     <row ht="45" r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -1333,19 +1327,19 @@
       <c r="L9" s="9"/>
     </row>
     <row ht="45" r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -1382,10 +1376,7 @@
     <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId10" ref="A2:A10"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId11"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="I2:I10"/>
-  </ignoredErrors>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId11" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1393,7 +1384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="64">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="64">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="64">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="64">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XCD HR_Documents\Project Imp Documents\Regression Testing_2018_2019\New Input Files_2018_2019\4 Weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NI4WeeklyCat_A" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NI4WeeklyCat_A" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -126,9 +126,6 @@
     <t>FirstReportNameInApplication</t>
   </si>
   <si>
-    <t>TestResultExcelFilePath</t>
-  </si>
-  <si>
     <t>worksheetNo</t>
   </si>
   <si>
@@ -211,16 +208,12 @@
   </si>
   <si>
     <t>63,050.00</t>
-  </si>
-  <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201819\\201819 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -268,46 +261,46 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -324,10 +317,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -362,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,7 +407,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,7 +512,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -528,13 +521,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -544,7 +537,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -553,7 +546,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -562,7 +555,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -572,12 +565,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -608,7 +601,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -627,7 +620,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -639,7 +632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -648,10 +641,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,7 +675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -696,7 +689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -710,7 +703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="5" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -738,7 +731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="7" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -752,7 +745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="75" r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -767,13 +760,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -782,12 +775,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -815,13 +808,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -832,13 +825,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>21</v>
@@ -849,13 +842,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>21</v>
@@ -866,13 +859,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
@@ -883,13 +876,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>21</v>
@@ -900,13 +893,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
@@ -917,13 +910,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>21</v>
@@ -934,13 +927,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>21</v>
@@ -951,13 +944,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>21</v>
@@ -967,38 +960,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="C2:C10"/>
+    <ignoredError sqref="C2:C10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="38.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="47.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1027,383 +1019,352 @@
         <v>35</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="37.5" r="2" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="9"/>
-    </row>
-    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row ht="45" r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row ht="45" r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row ht="45" r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row ht="45" r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row ht="45" r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId10" ref="A2:A10"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2:A10" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId11" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="5" width="26.28515625" collapsed="true"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.28515625" style="5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1432,65 +1393,59 @@
         <v>35</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.75" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatA201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI4WeeklyCat_A" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI4WeeklyCat_A" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -214,6 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,46 +262,46 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -317,10 +318,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -355,7 +356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,7 +408,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,7 +513,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -521,13 +522,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -537,7 +538,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -546,7 +547,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -555,7 +556,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -565,12 +566,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -601,7 +602,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -620,7 +621,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -632,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -641,10 +642,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -675,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -689,7 +690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -703,7 +704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -731,7 +732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="7" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -745,7 +746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -760,13 +761,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -775,12 +776,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -960,16 +961,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:C10" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="C2:C10"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
@@ -978,19 +979,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="47.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="37.5" r="2" s="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>50</v>
       </c>
@@ -1326,24 +1327,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2:A10" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId10" ref="A2:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId11" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -1352,19 +1353,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.75" r="2" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>50</v>
       </c>
@@ -1442,10 +1443,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>